--- a/我的项目完成表.xlsx
+++ b/我的项目完成表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>9要购</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -81,6 +81,14 @@
   </si>
   <si>
     <t>完成点赞累加功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个视频的加载</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +482,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -524,6 +532,9 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
@@ -531,6 +542,9 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F3" t="s">
         <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>

--- a/我的项目完成表.xlsx
+++ b/我的项目完成表.xlsx
@@ -8,95 +8,179 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>主页footer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女装y_1.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看货video.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jquery-1.9.1</t>
+  </si>
+  <si>
+    <t>vue框架的使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jquery的使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的项目规划和自我的问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋糕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加、删除购物车商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据传参</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银座商城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个的详情页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询一定范围内的劵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个视频的加载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成浏览量累加功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成点赞累加功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换 大额券与全网劵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮播js     度娘cv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面之间的跳转传参</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喵喵说mms.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全网查劵index_6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页index.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页header</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>9要购</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页index.html</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页footer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>全网查劵index_6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>银座商城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>买书</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋糕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页header</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>女装y_1.html</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>喵喵说mms.html</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>看货video.html</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮播js</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换 大额券与全网劵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除输入框</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询一定范围内的劵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成浏览量累加功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成点赞累加功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一个视频的加载</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页css样式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>footer样式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>css样式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>css样式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>css样式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>css样式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>css样式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选框查询功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,14 +191,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -136,8 +212,50 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,8 +267,24 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,26 +292,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="警告文本" xfId="2" builtinId="11"/>
+    <cellStyle name="检查单元格" xfId="2" builtinId="23"/>
+    <cellStyle name="解释性文本" xfId="5" builtinId="53"/>
+    <cellStyle name="链接单元格" xfId="4" builtinId="24"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -479,96 +661,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="40.25" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
-    <col min="5" max="5" width="27.875" customWidth="1"/>
-    <col min="6" max="6" width="36.125" customWidth="1"/>
-    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
     <col min="8" max="9" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    </row>
+    <row r="36" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <mergeCells count="3">
+    <mergeCell ref="G36:K49"/>
+    <mergeCell ref="B36:E49"/>
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>